--- a/ML/SVM.xlsx
+++ b/ML/SVM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Kernel</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816666666666667</t>
+    <t xml:space="preserve">0.76271186440678</t>
   </si>
   <si>
     <t xml:space="preserve">L2_Linear</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775</t>
+    <t xml:space="preserve">0.754237288135593</t>
   </si>
   <si>
     <t xml:space="preserve">RBF</t>
@@ -59,25 +59,19 @@
     <t xml:space="preserve">0.9</t>
   </si>
   <si>
-    <t xml:space="preserve">0.692722371967655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.691666666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819407008086253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.808333333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
+    <t xml:space="preserve">0.696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.686440677966102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822033898305085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771186440677966</t>
   </si>
 </sst>
 </file>
@@ -448,7 +442,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -604,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -612,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -621,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -686,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -694,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -703,7 +697,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
